--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327786.085170663</v>
+        <v>1325898.503654261</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.4238074522052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>298.1703050854968</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.4526127311944</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>54.63122185700568</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>335.4227858064339</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>149.3982268499441</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>22.98569063694847</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>191.5139908715583</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>210.31634811157</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>279.9387901805694</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10.10581259942177</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051978</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>140.1519717222919</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>17.93359706704242</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.98982250293585</v>
+        <v>157.2425576766694</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>33.48995566753035</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.592858113462</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>101.3913673420931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>159.0211958897063</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>276.1491823570823</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532052</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>189.6680532570898</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>21.85553884047388</v>
       </c>
       <c r="E31" t="n">
         <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>42.20569823125544</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373783</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.3160057778002</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>777.3160057778002</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>777.3160057778002</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>777.3160057778002</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.3160057778002</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>210.965822962985</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2105.048665729205</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C5" t="n">
-        <v>2105.048665729205</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="D5" t="n">
-        <v>1746.782967122455</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="E5" t="n">
-        <v>1360.994714524211</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="F5" t="n">
-        <v>950.0088097346031</v>
+        <v>719.9485965383353</v>
       </c>
       <c r="G5" t="n">
-        <v>532.04500163279</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>204.8502816687928</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>2105.048665729205</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>77.16085115061543</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>77.16085115061543</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.597857825387</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.635340884975</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>677.3696422782245</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="E8" t="n">
-        <v>677.3696422782245</v>
+        <v>1165.659149439633</v>
       </c>
       <c r="F8" t="n">
-        <v>266.383737488617</v>
+        <v>754.6732446500255</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>336.7094365482124</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>717.921092691867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>490.6129053604687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>490.6129053604687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,16 +5042,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.1301850426789</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655734</v>
+        <v>844.028040127399</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286127</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="X13" t="n">
-        <v>647.5712290164487</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.7786498729185</v>
+        <v>554.6108700904383</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,13 +5267,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5361,13 +5361,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104477</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>985.7136853104477</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.0067938933407</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5595,10 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>410.874530133163</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890052</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
         <v>1332.091733170013</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.1711433963917</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C19" t="n">
-        <v>674.2349604684848</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
         <v>527.3450129705744</v>
@@ -5665,28 +5665,28 @@
         <v>359.169691290395</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1465.088032509892</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1465.088032509892</v>
       </c>
       <c r="T19" t="n">
-        <v>1071.160694294409</v>
+        <v>1465.088032509892</v>
       </c>
       <c r="U19" t="n">
-        <v>1071.160694294409</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.160694294409</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="W19" t="n">
-        <v>1071.160694294409</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="X19" t="n">
-        <v>843.1711433963917</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.1711433963917</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>349.7492534403924</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C22" t="n">
-        <v>349.7492534403924</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D22" t="n">
-        <v>199.6326140280567</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1338.288799962239</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1114.503384751745</v>
       </c>
       <c r="U22" t="n">
-        <v>786.082206476519</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706321</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706321</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706321</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706321</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6148,7 +6148,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6178,19 +6178,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>796.2722772255036</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>542.4381409926458</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>542.4381409926458</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.4381409926458</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102527</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123423</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6385,7 +6385,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1307.332378379024</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1052.647890173137</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>763.2307201361759</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>763.2307201361759</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>542.4381409926458</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542189</v>
+        <v>565.4200295030878</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076829</v>
+        <v>565.4200295030878</v>
       </c>
       <c r="D31" t="n">
-        <v>232.001338176718</v>
+        <v>543.3437276440238</v>
       </c>
       <c r="E31" t="n">
-        <v>139.8491098756954</v>
+        <v>451.1914993430015</v>
       </c>
       <c r="F31" t="n">
-        <v>139.8491098756954</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>139.8491098756954</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>139.8491098756954</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6658,10 +6658,10 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
         <v>565.4200295030878</v>
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7415,13 +7415,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
@@ -7555,7 +7555,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.68000845964542</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>207.7760583219947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.5948308491589</v>
+        <v>61.34209567542541</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>76.47439673626245</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>105.9547029449273</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>45.04259530447605</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.8996140938969</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.08817004149509</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>96.56929914148753</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.55667754918136</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.01029060445943</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>990631.0055595117</v>
+        <v>990631.0055595118</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
@@ -26320,25 +26320,25 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.351079797</v>
+        <v>447504.3510797971</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253562</v>
@@ -26347,13 +26347,13 @@
         <v>451572.9734253562</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26424,22 +26424,22 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.66962143911</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.66962143911</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>15045.66962143912</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563565</v>
@@ -26448,10 +26448,10 @@
         <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275964</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038205</v>
+        <v>-378028.9421038206</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.9371107239</v>
+        <v>211938.937110724</v>
       </c>
       <c r="D6" t="n">
         <v>211938.9371107238</v>
       </c>
       <c r="E6" t="n">
-        <v>-202061.0663355722</v>
+        <v>-202158.5254615444</v>
       </c>
       <c r="F6" t="n">
-        <v>323098.9701413237</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="G6" t="n">
-        <v>323098.970141324</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.9701413239</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.9701413241</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.7509487309</v>
+        <v>146578.2918227588</v>
       </c>
       <c r="K6" t="n">
-        <v>273503.2451110928</v>
+        <v>273484.7513731586</v>
       </c>
       <c r="L6" t="n">
         <v>306050.5039417044</v>
       </c>
       <c r="M6" t="n">
-        <v>181592.3955087342</v>
+        <v>181592.395508734</v>
       </c>
       <c r="N6" t="n">
-        <v>316393.4107425713</v>
+        <v>316393.4107425712</v>
       </c>
       <c r="O6" t="n">
-        <v>316393.4107425711</v>
+        <v>316393.4107425712</v>
       </c>
       <c r="P6" t="n">
-        <v>272230.8054397255</v>
+        <v>272230.8054397256</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.4522382895062</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>88.06763357055678</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>24.37936745074293</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>112.6785804020452</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>78.36138421436107</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.53308939491717</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.21426855158853</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>33.52111458652593</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.467821909225</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>43.98398258378779</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>202.0397263505971</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
